--- a/ultra-simple-template.xlsx
+++ b/ultra-simple-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Simple Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -402,10 +402,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="70.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>example-file-123.mp3</v>
+        <v>agent-261-17027502083-444.mp3</v>
       </c>
       <c r="B2" t="str">
         <v>english</v>

--- a/ultra-simple-template.xlsx
+++ b/ultra-simple-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Simple Template" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,15 +397,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="70.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="21" max="21" width="20.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -421,10 +440,67 @@
       <c r="D1" t="str">
         <v>call_date</v>
       </c>
+      <c r="E1" t="str">
+        <v>auditRole</v>
+      </c>
+      <c r="F1" t="str">
+        <v>OLMSID</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PBXID</v>
+      </c>
+      <c r="I1" t="str">
+        <v>partnerName</v>
+      </c>
+      <c r="J1" t="str">
+        <v>customerMobile</v>
+      </c>
+      <c r="K1" t="str">
+        <v>callDuration</v>
+      </c>
+      <c r="L1" t="str">
+        <v>callType</v>
+      </c>
+      <c r="M1" t="str">
+        <v>subType</v>
+      </c>
+      <c r="N1" t="str">
+        <v>subSubType</v>
+      </c>
+      <c r="O1" t="str">
+        <v>VOC</v>
+      </c>
+      <c r="P1" t="str">
+        <v>languageOfCall</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>userRole</v>
+      </c>
+      <c r="R1" t="str">
+        <v>advisorCategory</v>
+      </c>
+      <c r="S1" t="str">
+        <v>businessSegment</v>
+      </c>
+      <c r="T1" t="str">
+        <v>LOB</v>
+      </c>
+      <c r="U1" t="str">
+        <v>formName</v>
+      </c>
+      <c r="V1" t="str">
+        <v>callId</v>
+      </c>
+      <c r="W1" t="str">
+        <v>callDate</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>agent-261-17027502083-444.mp3</v>
+        <v>example-file-123.mp3</v>
       </c>
       <c r="B2" t="str">
         <v>english</v>
@@ -433,12 +509,69 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="str">
+        <v>2025-04-03</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Quality Analyst</v>
+      </c>
+      <c r="F2" t="str">
+        <v>AG123456</v>
+      </c>
+      <c r="G2" t="str">
+        <v>John Smith</v>
+      </c>
+      <c r="H2" t="str">
+        <v>PBX987654</v>
+      </c>
+      <c r="I2" t="str">
+        <v>CloudPoint Technologies</v>
+      </c>
+      <c r="J2" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="K2" t="str">
+        <v>180</v>
+      </c>
+      <c r="L2" t="str">
+        <v>inbound</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Customer Service</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Billing Inquiry</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Positive</v>
+      </c>
+      <c r="P2" t="str">
+        <v>English</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Agent</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Challenger</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Care</v>
+      </c>
+      <c r="T2" t="str">
+        <v>Prepaid</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Evaluation Form 1</v>
+      </c>
+      <c r="V2" t="str">
+        <v>CALL-123-25</v>
+      </c>
+      <c r="W2" t="str">
         <v>2025-04-03</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W2"/>
   </ignoredErrors>
 </worksheet>
 </file>